--- a/public/sample-file/Agents-Sample.xlsx
+++ b/public/sample-file/Agents-Sample.xlsx
@@ -14,46 +14,277 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>PhoneCode</t>
-  </si>
-  <si>
-    <t>CountryCode</t>
-  </si>
-  <si>
-    <t>CountryName</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>Status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Firm Company Type</t>
+  </si>
+  <si>
+    <t>Nature of Business</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Office address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>IATA certified</t>
+  </si>
+  <si>
+    <t>Other Certification</t>
+  </si>
+  <si>
+    <t>IATA Number</t>
+  </si>
+  <si>
+    <t>PAN Number</t>
+  </si>
+  <si>
+    <t>GST Number</t>
+  </si>
+  <si>
+    <t>Know About</t>
+  </si>
+  <si>
+    <t>Know Other</t>
+  </si>
+  <si>
+    <t>Holidays Bookers</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>abc1@gmail.com</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>ERRDD0315D</t>
+  </si>
+  <si>
+    <t>GSTNUMBER</t>
+  </si>
+  <si>
+    <t>Ijona</t>
+  </si>
+  <si>
+    <t>Management First Name</t>
+  </si>
+  <si>
+    <t>Management Last Name</t>
+  </si>
+  <si>
+    <t>Management Contact Number</t>
+  </si>
+  <si>
+    <t>Management Email Address</t>
+  </si>
+  <si>
+    <t>Accounts First Name</t>
+  </si>
+  <si>
+    <t>Accounts Last Name</t>
+  </si>
+  <si>
+    <t>Accounts Contact Number</t>
+  </si>
+  <si>
+    <t>Accounts Email Address</t>
+  </si>
+  <si>
+    <t>Operations First Name</t>
+  </si>
+  <si>
+    <t>Operations Last Name</t>
+  </si>
+  <si>
+    <t>Operations Contact Number</t>
+  </si>
+  <si>
+    <t>Operations Email Address</t>
+  </si>
+  <si>
+    <t>Login Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>MHolidays</t>
+  </si>
+  <si>
+    <t>MBookers</t>
+  </si>
+  <si>
+    <t>mholidays@gmail.com</t>
+  </si>
+  <si>
+    <t>ABookers</t>
+  </si>
+  <si>
+    <t>AHolidays</t>
+  </si>
+  <si>
+    <t>aholidays@gmail.com</t>
+  </si>
+  <si>
+    <t>OHolidays</t>
+  </si>
+  <si>
+    <t>OBookers</t>
+  </si>
+  <si>
+    <t>oholidays@gmail.com</t>
+  </si>
+  <si>
+    <t>hb@gmail.com</t>
+  </si>
+  <si>
+    <t>Holidays Bookers Two</t>
+  </si>
+  <si>
+    <t>Booking Two</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>aaa1@gmail.com</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>ERRDD0315G</t>
+  </si>
+  <si>
+    <t>24KDEGJDJ</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>hb1@gmail.com</t>
+  </si>
+  <si>
+    <t>oholidays1@gmail.com</t>
+  </si>
+  <si>
+    <t>aholidays1@gmail.com</t>
+  </si>
+  <si>
+    <t>mholidays1@gmail.com</t>
+  </si>
+  <si>
+    <t>AHolidays1</t>
+  </si>
+  <si>
+    <t>ABookers1</t>
+  </si>
+  <si>
+    <t>OHolidays1</t>
+  </si>
+  <si>
+    <t>OBookers1</t>
+  </si>
+  <si>
+    <t>MBookers1</t>
+  </si>
+  <si>
+    <t>MHolidays1</t>
+  </si>
+  <si>
+    <t>Goa</t>
   </si>
   <si>
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>AQ</t>
+    <t>Proprietor</t>
+  </si>
+  <si>
+    <t>LLP</t>
+  </si>
+  <si>
+    <t>Sales Person</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +425,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -493,7 +732,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -536,12 +775,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -575,6 +817,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -882,38 +1125,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -921,60 +1189,342 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>92</v>
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2">
+        <v>33526</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>380052</v>
+      </c>
+      <c r="N2">
+        <v>9979441155</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2">
+        <v>748596</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2">
+        <v>1234567891</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2">
+        <v>3698521477</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2">
+        <v>8521479633</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK2">
+        <v>123456</v>
+      </c>
+      <c r="AL2">
+        <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2">
+        <v>33531</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>380061</v>
+      </c>
+      <c r="M3">
+        <v>7418521478</v>
+      </c>
+      <c r="N3">
+        <v>9979441100</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3">
+        <v>1234567891</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD3">
+        <v>3698521477</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3">
+        <v>8521479633</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3">
+        <v>123456</v>
+      </c>
+      <c r="AL3">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="AA2" r:id="rId2"/>
+    <hyperlink ref="AE2" r:id="rId3"/>
+    <hyperlink ref="AI2" r:id="rId4"/>
+    <hyperlink ref="O3" r:id="rId5"/>
+    <hyperlink ref="AA3" r:id="rId6"/>
+    <hyperlink ref="AE3" r:id="rId7"/>
+    <hyperlink ref="AI3" r:id="rId8"/>
+    <hyperlink ref="AJ3" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/public/sample-file/Agents-Sample.xlsx
+++ b/public/sample-file/Agents-Sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="clients" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>Company Name</t>
   </si>
@@ -262,12 +262,6 @@
     <t>MHolidays1</t>
   </si>
   <si>
-    <t>Goa</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
     <t>Proprietor</t>
   </si>
   <si>
@@ -278,13 +272,22 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Bharuch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,7 +916,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -948,7 +950,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1124,14 +1125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -1173,7 +1174,7 @@
     <col min="38" max="38" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,12 +1290,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1315,12 +1316,12 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L2">
@@ -1348,7 +1349,7 @@
         <v>33</v>
       </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W2" t="s">
         <v>34</v>
@@ -1399,12 +1400,12 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
@@ -1425,13 +1426,13 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
+        <v>86</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="L3">
         <v>380061</v>
@@ -1461,7 +1462,7 @@
         <v>70</v>
       </c>
       <c r="V3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W3" t="s">
         <v>71</v>
